--- a/data/output/FV2410_FV2404/UTILMD/55117.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55117.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9192" uniqueCount="584">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9213" uniqueCount="584">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1860,6 +1860,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U382" totalsRowShown="0">
+  <autoFilter ref="A1:U382"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2149,7 +2179,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21354,5 +21387,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55117.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55117.xlsx
@@ -3413,7 +3413,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5795,7 +5795,7 @@
         <v>564</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -8583,7 +8583,7 @@
         <v>570</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -12105,7 +12105,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -13215,7 +13215,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -15547,7 +15547,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -15711,7 +15711,7 @@
         <v>574</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -16681,7 +16681,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16841,7 +16841,7 @@
         <v>576</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -17645,7 +17645,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -17751,7 +17751,7 @@
         <v>577</v>
       </c>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -18133,7 +18133,7 @@
         <v>579</v>
       </c>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -18299,7 +18299,7 @@
         <v>580</v>
       </c>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -18679,7 +18679,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -19049,7 +19049,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19207,7 +19207,7 @@
       </c>
       <c r="K298" s="2"/>
       <c r="L298" s="4"/>
-      <c r="M298" s="2" t="s">
+      <c r="M298" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N298" s="2" t="s">
@@ -19365,7 +19365,7 @@
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -20055,7 +20055,7 @@
       </c>
       <c r="K314" s="2"/>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20159,7 +20159,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -20423,7 +20423,7 @@
         <v>582</v>
       </c>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -21169,7 +21169,7 @@
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -21273,7 +21273,7 @@
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -21431,7 +21431,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21805,7 +21805,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -22067,7 +22067,7 @@
       </c>
       <c r="K352" s="2"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -22171,7 +22171,7 @@
       </c>
       <c r="K354" s="2"/>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -22329,7 +22329,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -22487,7 +22487,7 @@
       </c>
       <c r="K360" s="2"/>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -22695,7 +22695,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -22857,7 +22857,7 @@
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="4"/>
-      <c r="M367" s="2" t="s">
+      <c r="M367" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N367" s="2" t="s">
@@ -22961,7 +22961,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23119,7 +23119,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -23281,7 +23281,7 @@
       </c>
       <c r="K375" s="2"/>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N380" s="2"/>
